--- a/swbproys/gestor-bsc/doc/tsp/PIP.xlsx
+++ b/swbproys/gestor-bsc/doc/tsp/PIP.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="15315" windowHeight="5955"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>P=Personal
 E=Equipo</t>
@@ -74,6 +74,34 @@
   </si>
   <si>
     <t>I</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>CIRI</t>
+  </si>
+  <si>
+    <t>No tengo los checklist de revisión de diseño y codificación</t>
+  </si>
+  <si>
+    <t>Definir mis checklist de revisión de diseño y codificación antes de la siguiente fase de revisión</t>
+  </si>
+  <si>
+    <t>Script de Proceso de ontología.
+Script del Proceso de codigo</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La lista de verificación de DLDR no contempla la verificación de las reglas de negocio funcionales </t>
+  </si>
+  <si>
+    <t>Especificar en la parte de Requerimientos, de la lista de verificación, revisión de reglas de negocio funcionales.</t>
+  </si>
+  <si>
+    <t>Lista de verificación para la Inspección de Diseño Detallado</t>
   </si>
 </sst>
 </file>
@@ -145,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
@@ -165,6 +193,15 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,7 +507,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -538,7 +575,7 @@
       <c r="F2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="9" t="s">
@@ -551,13 +588,67 @@
         <v>41452</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="6"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="6"/>
-      <c r="J4" s="6"/>
+    <row r="3" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>41459</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>41460</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="8">
+        <v>41460</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="6"/>
